--- a/Pycharm/Valores.xlsx
+++ b/Pycharm/Valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Gits_leo\Analises\Pycharm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5161DF76-DBC1-439C-B7B5-7372596949AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861108A8-AD92-44DE-BAE4-966111672672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="2" r:id="rId1"/>
@@ -412,7 +412,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="mm/yy"/>
+    <numFmt numFmtId="164" formatCode="mm/yy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -532,11 +532,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda 2" xfId="1" xr:uid="{1AB18A5C-00EF-40E3-9DA7-E730BE77D17B}"/>
@@ -18573,8 +18573,8 @@
   <dimension ref="A1:BR85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R22" sqref="R22"/>
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19080,6 +19080,9 @@
       <c r="E10" s="17">
         <v>208</v>
       </c>
+      <c r="F10" s="17">
+        <v>1576</v>
+      </c>
       <c r="G10" s="17">
         <v>439</v>
       </c>
@@ -19127,6 +19130,9 @@
       <c r="E11" s="17">
         <v>197</v>
       </c>
+      <c r="F11" s="17">
+        <v>1864</v>
+      </c>
       <c r="G11" s="17">
         <v>378</v>
       </c>
@@ -19159,6 +19165,9 @@
       </c>
       <c r="R11" s="17">
         <v>270</v>
+      </c>
+      <c r="T11" s="17">
+        <v>2302</v>
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
@@ -19177,6 +19186,9 @@
       <c r="E12" s="17">
         <v>289</v>
       </c>
+      <c r="F12" s="17">
+        <v>2119</v>
+      </c>
       <c r="G12" s="17">
         <v>612</v>
       </c>
@@ -19209,6 +19221,21 @@
       </c>
       <c r="R12" s="17">
         <v>204</v>
+      </c>
+      <c r="T12" s="17">
+        <v>4231</v>
+      </c>
+      <c r="V12" s="17">
+        <v>396</v>
+      </c>
+      <c r="W12" s="17">
+        <v>423</v>
+      </c>
+      <c r="X12" s="17">
+        <v>61</v>
+      </c>
+      <c r="Y12" s="17">
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
@@ -19227,6 +19254,9 @@
       <c r="E13" s="17">
         <v>259</v>
       </c>
+      <c r="F13" s="17">
+        <v>2498</v>
+      </c>
       <c r="G13" s="17">
         <v>726</v>
       </c>
@@ -19259,6 +19289,33 @@
       </c>
       <c r="R13" s="17">
         <v>222</v>
+      </c>
+      <c r="T13" s="17">
+        <v>4889</v>
+      </c>
+      <c r="U13" s="17">
+        <v>3862</v>
+      </c>
+      <c r="V13" s="17">
+        <v>486</v>
+      </c>
+      <c r="W13" s="17">
+        <v>653</v>
+      </c>
+      <c r="X13" s="17">
+        <v>410</v>
+      </c>
+      <c r="Y13" s="17">
+        <v>1533</v>
+      </c>
+      <c r="AA13" s="17">
+        <v>120</v>
+      </c>
+      <c r="AB13" s="17">
+        <v>533</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>1461</v>
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
@@ -19277,6 +19334,9 @@
       <c r="E14" s="17">
         <v>219</v>
       </c>
+      <c r="F14" s="17">
+        <v>2690</v>
+      </c>
       <c r="G14" s="17">
         <v>541</v>
       </c>
@@ -19309,6 +19369,33 @@
       </c>
       <c r="R14" s="17">
         <v>206</v>
+      </c>
+      <c r="T14" s="17">
+        <v>3196</v>
+      </c>
+      <c r="U14" s="17">
+        <v>2189</v>
+      </c>
+      <c r="V14" s="17">
+        <v>325</v>
+      </c>
+      <c r="W14" s="17">
+        <v>572</v>
+      </c>
+      <c r="X14" s="17">
+        <v>347</v>
+      </c>
+      <c r="Y14" s="17">
+        <v>1083</v>
+      </c>
+      <c r="AA14" s="17">
+        <v>777</v>
+      </c>
+      <c r="AB14" s="17">
+        <v>581</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>1815</v>
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
@@ -19327,6 +19414,9 @@
       <c r="E15" s="17">
         <v>196</v>
       </c>
+      <c r="F15" s="17">
+        <v>1942</v>
+      </c>
       <c r="G15" s="17">
         <v>553</v>
       </c>
@@ -19359,6 +19449,39 @@
       </c>
       <c r="R15" s="17">
         <v>188</v>
+      </c>
+      <c r="T15" s="17">
+        <v>3091</v>
+      </c>
+      <c r="U15" s="17">
+        <v>2500</v>
+      </c>
+      <c r="V15" s="17">
+        <v>384</v>
+      </c>
+      <c r="W15" s="17">
+        <v>448</v>
+      </c>
+      <c r="X15" s="17">
+        <v>317</v>
+      </c>
+      <c r="Y15" s="17">
+        <v>981</v>
+      </c>
+      <c r="AA15" s="17">
+        <v>711</v>
+      </c>
+      <c r="AB15" s="17">
+        <v>581</v>
+      </c>
+      <c r="AC15" s="17">
+        <v>1656</v>
+      </c>
+      <c r="AD15" s="17">
+        <v>1470</v>
+      </c>
+      <c r="AF15" s="17">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
@@ -19377,6 +19500,9 @@
       <c r="E16" s="17">
         <v>226</v>
       </c>
+      <c r="F16" s="17">
+        <v>2766</v>
+      </c>
       <c r="G16" s="17">
         <v>485</v>
       </c>
@@ -19410,8 +19536,41 @@
       <c r="R16" s="17">
         <v>223</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T16" s="17">
+        <v>3469</v>
+      </c>
+      <c r="U16" s="17">
+        <v>2905</v>
+      </c>
+      <c r="V16" s="17">
+        <v>399</v>
+      </c>
+      <c r="W16" s="17">
+        <v>665</v>
+      </c>
+      <c r="X16" s="17">
+        <v>407</v>
+      </c>
+      <c r="Y16" s="17">
+        <v>1076</v>
+      </c>
+      <c r="AA16" s="17">
+        <v>816</v>
+      </c>
+      <c r="AB16" s="17">
+        <v>613</v>
+      </c>
+      <c r="AC16" s="17">
+        <v>1778</v>
+      </c>
+      <c r="AD16" s="17">
+        <v>1592</v>
+      </c>
+      <c r="AF16" s="17">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>43556</v>
       </c>
@@ -19424,6 +19583,9 @@
       <c r="E17" s="17">
         <v>210</v>
       </c>
+      <c r="F17" s="17">
+        <v>1451</v>
+      </c>
       <c r="G17" s="17">
         <v>429</v>
       </c>
@@ -19457,8 +19619,38 @@
       <c r="R17" s="17">
         <v>254</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T17" s="17">
+        <v>2817</v>
+      </c>
+      <c r="U17" s="17">
+        <v>2320</v>
+      </c>
+      <c r="V17" s="17">
+        <v>365</v>
+      </c>
+      <c r="W17" s="17">
+        <v>422</v>
+      </c>
+      <c r="X17" s="17">
+        <v>316</v>
+      </c>
+      <c r="Y17" s="17">
+        <v>989</v>
+      </c>
+      <c r="AA17" s="17">
+        <v>609</v>
+      </c>
+      <c r="AB17" s="17">
+        <v>568</v>
+      </c>
+      <c r="AC17" s="17">
+        <v>1343</v>
+      </c>
+      <c r="AD17" s="17">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>43586</v>
       </c>
@@ -19474,6 +19666,9 @@
       <c r="E18" s="17">
         <v>146</v>
       </c>
+      <c r="F18" s="17">
+        <v>857</v>
+      </c>
       <c r="G18" s="17">
         <v>307</v>
       </c>
@@ -19507,8 +19702,41 @@
       <c r="R18" s="17">
         <v>254</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T18" s="17">
+        <v>1797</v>
+      </c>
+      <c r="U18" s="17">
+        <v>1562</v>
+      </c>
+      <c r="V18" s="17">
+        <v>175</v>
+      </c>
+      <c r="W18" s="17">
+        <v>417</v>
+      </c>
+      <c r="X18" s="17">
+        <v>336</v>
+      </c>
+      <c r="Y18" s="17">
+        <v>710</v>
+      </c>
+      <c r="AA18" s="17">
+        <v>325</v>
+      </c>
+      <c r="AB18" s="17">
+        <v>448</v>
+      </c>
+      <c r="AC18" s="17">
+        <v>854</v>
+      </c>
+      <c r="AD18" s="17">
+        <v>922</v>
+      </c>
+      <c r="AF18" s="17">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>43617</v>
       </c>
@@ -19524,6 +19752,9 @@
       <c r="E19" s="17">
         <v>89</v>
       </c>
+      <c r="F19" s="17">
+        <v>1668</v>
+      </c>
       <c r="G19" s="17">
         <v>218</v>
       </c>
@@ -19557,8 +19788,41 @@
       <c r="R19" s="17">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T19" s="17">
+        <v>1235</v>
+      </c>
+      <c r="U19" s="17">
+        <v>884</v>
+      </c>
+      <c r="V19" s="17">
+        <v>230</v>
+      </c>
+      <c r="W19" s="17">
+        <v>227</v>
+      </c>
+      <c r="X19" s="17">
+        <v>178</v>
+      </c>
+      <c r="Y19" s="17">
+        <v>507</v>
+      </c>
+      <c r="AA19" s="17">
+        <v>221</v>
+      </c>
+      <c r="AB19" s="17">
+        <v>307</v>
+      </c>
+      <c r="AC19" s="17">
+        <v>628</v>
+      </c>
+      <c r="AD19" s="17">
+        <v>618</v>
+      </c>
+      <c r="AF19" s="17">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>43647</v>
       </c>
@@ -19574,6 +19838,9 @@
       <c r="E20" s="17">
         <v>176</v>
       </c>
+      <c r="F20" s="17">
+        <v>1097</v>
+      </c>
       <c r="G20" s="17">
         <v>297</v>
       </c>
@@ -19607,8 +19874,41 @@
       <c r="R20" s="17">
         <v>259</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T20" s="17">
+        <v>2425</v>
+      </c>
+      <c r="U20" s="17">
+        <v>1338</v>
+      </c>
+      <c r="V20" s="17">
+        <v>300</v>
+      </c>
+      <c r="W20" s="17">
+        <v>373</v>
+      </c>
+      <c r="X20" s="17">
+        <v>303</v>
+      </c>
+      <c r="Y20" s="17">
+        <v>645</v>
+      </c>
+      <c r="AA20" s="17">
+        <v>314</v>
+      </c>
+      <c r="AB20" s="17">
+        <v>465</v>
+      </c>
+      <c r="AC20" s="17">
+        <v>1005</v>
+      </c>
+      <c r="AD20" s="17">
+        <v>953</v>
+      </c>
+      <c r="AF20" s="17">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>43678</v>
       </c>
@@ -19624,6 +19924,9 @@
       <c r="E21" s="17">
         <v>152</v>
       </c>
+      <c r="F21" s="17">
+        <v>1541</v>
+      </c>
       <c r="G21" s="17">
         <v>286</v>
       </c>
@@ -19657,8 +19960,41 @@
       <c r="R21" s="17">
         <v>285</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T21" s="17">
+        <v>2460</v>
+      </c>
+      <c r="U21" s="17">
+        <v>1387</v>
+      </c>
+      <c r="V21" s="17">
+        <v>255</v>
+      </c>
+      <c r="W21" s="17">
+        <v>307</v>
+      </c>
+      <c r="X21" s="17">
+        <v>306</v>
+      </c>
+      <c r="Y21" s="17">
+        <v>615</v>
+      </c>
+      <c r="AA21" s="17">
+        <v>261</v>
+      </c>
+      <c r="AB21" s="17">
+        <v>404</v>
+      </c>
+      <c r="AC21" s="17">
+        <v>969</v>
+      </c>
+      <c r="AD21" s="17">
+        <v>867</v>
+      </c>
+      <c r="AF21" s="17">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>43709</v>
       </c>
@@ -19707,53 +20043,86 @@
       <c r="R22" s="17">
         <v>295</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T22" s="17">
+        <v>3378</v>
+      </c>
+      <c r="U22" s="17">
+        <v>2402</v>
+      </c>
+      <c r="V22" s="17">
+        <v>330</v>
+      </c>
+      <c r="X22" s="17">
+        <v>336</v>
+      </c>
+      <c r="Y22" s="17">
+        <v>842</v>
+      </c>
+      <c r="AA22" s="17">
+        <v>461</v>
+      </c>
+      <c r="AB22" s="17">
+        <v>479</v>
+      </c>
+      <c r="AC22" s="17">
+        <v>1374</v>
+      </c>
+      <c r="AD22" s="17">
+        <v>1268</v>
+      </c>
+      <c r="AF22" s="17">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>43739</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA23" s="17">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>43770</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>43831</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>43862</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>43891</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>43922</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>43952</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>43983</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>44013</v>
       </c>

--- a/Pycharm/Valores.xlsx
+++ b/Pycharm/Valores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Gits_leo\Analises\Pycharm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GitsLeo\Analises\Pycharm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861108A8-AD92-44DE-BAE4-966111672672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D07C839-04EE-4652-B745-1AC59BBB7471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="2" r:id="rId1"/>
@@ -18572,9 +18572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8075BAA5-F0EC-41F4-818C-2C16373C0242}">
   <dimension ref="A1:BR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH10" sqref="AH10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG22" sqref="BG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19483,6 +19483,9 @@
       <c r="AF15" s="17">
         <v>70</v>
       </c>
+      <c r="AG15" s="17">
+        <v>807</v>
+      </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
@@ -19569,8 +19572,20 @@
       <c r="AF16" s="17">
         <v>3294</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16" s="17">
+        <v>782</v>
+      </c>
+      <c r="AJ16" s="17">
+        <v>786</v>
+      </c>
+      <c r="AK16" s="17">
+        <v>302</v>
+      </c>
+      <c r="AM16" s="17">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>43556</v>
       </c>
@@ -19649,8 +19664,32 @@
       <c r="AD17" s="17">
         <v>1257</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE17" s="17">
+        <v>7493</v>
+      </c>
+      <c r="AG17" s="17">
+        <v>588</v>
+      </c>
+      <c r="AI17" s="17">
+        <v>736</v>
+      </c>
+      <c r="AJ17" s="17">
+        <v>725</v>
+      </c>
+      <c r="AK17" s="17">
+        <v>329</v>
+      </c>
+      <c r="AL17" s="17">
+        <v>1024</v>
+      </c>
+      <c r="AM17" s="17">
+        <v>265</v>
+      </c>
+      <c r="AN17" s="17">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>43586</v>
       </c>
@@ -19732,11 +19771,44 @@
       <c r="AD18" s="17">
         <v>922</v>
       </c>
+      <c r="AE18" s="17">
+        <v>4352</v>
+      </c>
       <c r="AF18" s="17">
         <v>2500</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG18" s="17">
+        <v>291</v>
+      </c>
+      <c r="AH18" s="17">
+        <v>195</v>
+      </c>
+      <c r="AI18" s="17">
+        <v>665</v>
+      </c>
+      <c r="AJ18" s="17">
+        <v>543</v>
+      </c>
+      <c r="AK18" s="17">
+        <v>195</v>
+      </c>
+      <c r="AL18" s="17">
+        <v>447</v>
+      </c>
+      <c r="AM18" s="17">
+        <v>176</v>
+      </c>
+      <c r="AN18" s="17">
+        <v>222</v>
+      </c>
+      <c r="AP18" s="17">
+        <v>265</v>
+      </c>
+      <c r="AS18" s="17">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>43617</v>
       </c>
@@ -19818,11 +19890,56 @@
       <c r="AD19" s="17">
         <v>618</v>
       </c>
+      <c r="AE19" s="17">
+        <v>2868</v>
+      </c>
       <c r="AF19" s="17">
         <v>1631</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG19" s="17">
+        <v>283</v>
+      </c>
+      <c r="AH19" s="17">
+        <v>203</v>
+      </c>
+      <c r="AI19" s="17">
+        <v>381</v>
+      </c>
+      <c r="AJ19" s="17">
+        <v>408</v>
+      </c>
+      <c r="AK19" s="17">
+        <v>151</v>
+      </c>
+      <c r="AL19" s="17">
+        <v>369</v>
+      </c>
+      <c r="AM19" s="17">
+        <v>204</v>
+      </c>
+      <c r="AN19" s="17">
+        <v>199</v>
+      </c>
+      <c r="AP19" s="17">
+        <v>387</v>
+      </c>
+      <c r="AQ19" s="17">
+        <v>429</v>
+      </c>
+      <c r="AR19" s="17">
+        <v>204</v>
+      </c>
+      <c r="AS19" s="17">
+        <v>603</v>
+      </c>
+      <c r="AT19" s="17">
+        <v>212</v>
+      </c>
+      <c r="AU19" s="17">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>43647</v>
       </c>
@@ -19904,11 +20021,65 @@
       <c r="AD20" s="17">
         <v>953</v>
       </c>
+      <c r="AE20" s="17">
+        <v>6056</v>
+      </c>
       <c r="AF20" s="17">
         <v>2306</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG20" s="17">
+        <v>228</v>
+      </c>
+      <c r="AH20" s="17">
+        <v>345</v>
+      </c>
+      <c r="AI20" s="17">
+        <v>549</v>
+      </c>
+      <c r="AJ20" s="17">
+        <v>512</v>
+      </c>
+      <c r="AK20" s="17">
+        <v>197</v>
+      </c>
+      <c r="AL20" s="17">
+        <v>493</v>
+      </c>
+      <c r="AM20" s="17">
+        <v>210</v>
+      </c>
+      <c r="AN20" s="17">
+        <v>304</v>
+      </c>
+      <c r="AP20" s="17">
+        <v>373</v>
+      </c>
+      <c r="AQ20" s="17">
+        <v>498</v>
+      </c>
+      <c r="AR20" s="17">
+        <v>323</v>
+      </c>
+      <c r="AS20" s="17">
+        <v>1025</v>
+      </c>
+      <c r="AT20" s="17">
+        <v>103</v>
+      </c>
+      <c r="AU20" s="17">
+        <v>1902</v>
+      </c>
+      <c r="AW20" s="17">
+        <v>1290</v>
+      </c>
+      <c r="AX20" s="17">
+        <v>498</v>
+      </c>
+      <c r="AY20" s="17">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>43678</v>
       </c>
@@ -19990,11 +20161,71 @@
       <c r="AD21" s="17">
         <v>867</v>
       </c>
+      <c r="AE21" s="17">
+        <v>5192</v>
+      </c>
       <c r="AF21" s="17">
         <v>2305</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH21" s="17">
+        <v>337</v>
+      </c>
+      <c r="AI21" s="17">
+        <v>700</v>
+      </c>
+      <c r="AJ21" s="17">
+        <v>485</v>
+      </c>
+      <c r="AK21" s="17">
+        <v>284</v>
+      </c>
+      <c r="AL21" s="17">
+        <v>434</v>
+      </c>
+      <c r="AM21" s="17">
+        <v>257</v>
+      </c>
+      <c r="AN21" s="17">
+        <v>323</v>
+      </c>
+      <c r="AO21" s="17">
+        <v>111</v>
+      </c>
+      <c r="AP21" s="17">
+        <v>485</v>
+      </c>
+      <c r="AQ21" s="17">
+        <v>462</v>
+      </c>
+      <c r="AR21" s="17">
+        <v>364</v>
+      </c>
+      <c r="AS21" s="17">
+        <v>989</v>
+      </c>
+      <c r="AT21" s="17">
+        <v>469</v>
+      </c>
+      <c r="AU21" s="17">
+        <v>1900</v>
+      </c>
+      <c r="AW21" s="17">
+        <v>1319</v>
+      </c>
+      <c r="AX21" s="17">
+        <v>755</v>
+      </c>
+      <c r="AY21" s="17">
+        <v>234</v>
+      </c>
+      <c r="AZ21" s="17">
+        <v>283</v>
+      </c>
+      <c r="BD21" s="17">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>43709</v>
       </c>
@@ -20070,11 +20301,83 @@
       <c r="AD22" s="17">
         <v>1268</v>
       </c>
+      <c r="AE22" s="17">
+        <v>7047</v>
+      </c>
       <c r="AF22" s="17">
         <v>3256</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG22" s="17">
+        <v>456</v>
+      </c>
+      <c r="AH22" s="17">
+        <v>426</v>
+      </c>
+      <c r="AI22" s="17">
+        <v>827</v>
+      </c>
+      <c r="AJ22" s="17">
+        <v>698</v>
+      </c>
+      <c r="AK22" s="17">
+        <v>363</v>
+      </c>
+      <c r="AL22" s="17">
+        <v>689</v>
+      </c>
+      <c r="AM22" s="17">
+        <v>331</v>
+      </c>
+      <c r="AN22" s="17">
+        <v>398</v>
+      </c>
+      <c r="AO22" s="17">
+        <v>683</v>
+      </c>
+      <c r="AP22" s="17">
+        <v>627</v>
+      </c>
+      <c r="AQ22" s="17">
+        <v>625</v>
+      </c>
+      <c r="AR22" s="17">
+        <v>524</v>
+      </c>
+      <c r="AS22" s="17">
+        <v>1451</v>
+      </c>
+      <c r="AT22" s="17">
+        <v>455</v>
+      </c>
+      <c r="AU22" s="17">
+        <v>3061</v>
+      </c>
+      <c r="AW22" s="17">
+        <v>1570</v>
+      </c>
+      <c r="AX22" s="17">
+        <v>1109</v>
+      </c>
+      <c r="AY22" s="17">
+        <v>344</v>
+      </c>
+      <c r="AZ22" s="17">
+        <v>485</v>
+      </c>
+      <c r="BA22" s="17">
+        <v>2565</v>
+      </c>
+      <c r="BB22" s="17">
+        <v>313</v>
+      </c>
+      <c r="BD22" s="17">
+        <v>421</v>
+      </c>
+      <c r="BG22" s="17">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>43739</v>
       </c>
@@ -20082,47 +20385,47 @@
         <v>702</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>43770</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>43831</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>43862</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>43891</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>43922</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>43952</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>43983</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>44013</v>
       </c>

--- a/Pycharm/Valores.xlsx
+++ b/Pycharm/Valores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GitsLeo\Analises\Pycharm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Gits_leo\Analises\Pycharm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D07C839-04EE-4652-B745-1AC59BBB7471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75C1554-C79E-4356-98BE-36EA4E2BC338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="2" r:id="rId1"/>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8BF3AE-961F-4C97-8C97-AEB3DD9D3EAF}">
   <dimension ref="A1:CL86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18572,9 +18572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8075BAA5-F0EC-41F4-818C-2C16373C0242}">
   <dimension ref="A1:BR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG22" sqref="BG22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pycharm/Valores.xlsx
+++ b/Pycharm/Valores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Gits_leo\Analises\Pycharm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GitsLeo\Analises\Pycharm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E7B8AE-F555-46C5-9D25-A5D9F238DC4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC848171-10B2-4A21-9145-1406DC3C26E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="2" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="289">
   <si>
     <t>MARLON ROGER COLOVINI</t>
   </si>
@@ -818,6 +818,93 @@
   <si>
     <t>020.070.630-69</t>
   </si>
+  <si>
+    <t>49 - Apae</t>
+  </si>
+  <si>
+    <t>50 - Cássio Burin</t>
+  </si>
+  <si>
+    <t>51 - Patrick Kristoschek Da Silva</t>
+  </si>
+  <si>
+    <t>52 - Silvio Robert Ávila - (Valmir)</t>
+  </si>
+  <si>
+    <t>53 - Zederson Jose Della Flora</t>
+  </si>
+  <si>
+    <t>54 - Carlos Walmir Larsão Rolim</t>
+  </si>
+  <si>
+    <t>55 - Danieli Missio</t>
+  </si>
+  <si>
+    <t>56 - José Vasconcellos</t>
+  </si>
+  <si>
+    <t>57 - Linho Lev Alimentos</t>
+  </si>
+  <si>
+    <t>58 - Ernani Czapla</t>
+  </si>
+  <si>
+    <t>59 - Valesca Da Luz</t>
+  </si>
+  <si>
+    <t>60 - Olavo Mildner</t>
+  </si>
+  <si>
+    <t>61 - Dilnei Rohled</t>
+  </si>
+  <si>
+    <t>62 - Shaiana Signorini</t>
+  </si>
+  <si>
+    <t>63 - Fonse Atacado</t>
+  </si>
+  <si>
+    <t>64 - Comercial de Alimentos</t>
+  </si>
+  <si>
+    <t>65 - Ivone Kasburg Serralheria</t>
+  </si>
+  <si>
+    <t>66 - Mercado Ceretta</t>
+  </si>
+  <si>
+    <t>67 - Antonio Carlos Dos Santos Pereira</t>
+  </si>
+  <si>
+    <t>68 - Volnei Lemos Avila - Me</t>
+  </si>
+  <si>
+    <t>69 - Silvana Meneghini</t>
+  </si>
+  <si>
+    <t>70 - Eficaz Engenharia Ltda</t>
+  </si>
+  <si>
+    <t>71 - Tania Regina Schmaltz</t>
+  </si>
+  <si>
+    <t>72 - Camila Ceretta Segatto</t>
+  </si>
+  <si>
+    <t>73 - Vagner Ribas Dos Santos</t>
+  </si>
+  <si>
+    <t>49 - Apae - 01</t>
+  </si>
+  <si>
+    <t>49 - Apae - 02</t>
+  </si>
+  <si>
+    <t>71 - Tania Regina Schmaltz - 01</t>
+  </si>
+  <si>
+    <t>71 - Tania Regina Schmaltz - 02</t>
+  </si>
 </sst>
 </file>
 
@@ -916,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -970,12 +1057,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -17377,7 +17458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11308B6-D7F6-44FA-9E2F-A11D9810D55D}">
   <dimension ref="A1:CH85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -24532,8 +24613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2A2AF-D4A1-4D7C-8C5A-AD3DEA220354}">
   <dimension ref="A1:BV85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="AW1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27877,8 +27958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F55CF89-27AB-4851-9A82-67424CAB9D6F}">
   <dimension ref="A1:A74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28134,127 +28215,127 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>131</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>164</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>135</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>137</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>138</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>139</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>165</v>
+      <c r="A59" s="12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>142</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>143</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>167</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>168</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>170</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>171</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -28266,8 +28347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FA72F8-85D4-4737-B423-04B358B2D37B}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28819,7 +28900,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="B50" s="14">
         <v>2</v>
@@ -28830,7 +28911,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="B51" s="14">
         <v>1</v>
@@ -28841,7 +28922,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="B52" s="14">
         <v>1</v>
@@ -28852,7 +28933,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="B53" s="14">
         <v>1</v>
@@ -28863,7 +28944,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="B54" s="14">
         <v>1</v>
@@ -28874,7 +28955,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="B55" s="14">
         <v>1</v>
@@ -28885,7 +28966,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="B56" s="14">
         <v>1</v>
@@ -28896,7 +28977,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>138</v>
+        <v>267</v>
       </c>
       <c r="B57" s="14">
         <v>1</v>
@@ -28907,7 +28988,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c r="B58" s="14">
         <v>1</v>
@@ -28918,7 +28999,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
       <c r="B59" s="14">
         <v>1</v>
@@ -28929,156 +29010,156 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="B60" s="14">
         <v>1</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>162</v>
+      <c r="D60" s="12" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="B61" s="14">
         <v>1</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>163</v>
+      <c r="D61" s="12" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>142</v>
+        <v>272</v>
       </c>
       <c r="B62" s="14">
         <v>1</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>132</v>
+      <c r="D62" s="12" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>143</v>
+        <v>273</v>
       </c>
       <c r="B63" s="14">
         <v>1</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>133</v>
+      <c r="D63" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="B64" s="14">
         <v>1</v>
       </c>
-      <c r="D64" s="11" t="s">
-        <v>134</v>
+      <c r="D64" s="12" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="B65" s="14">
         <v>1</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>135</v>
+      <c r="D65" s="12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="B66" s="14">
         <v>1</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>136</v>
+      <c r="D66" s="12" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="B67" s="14">
         <v>1</v>
       </c>
-      <c r="D67" s="11" t="s">
-        <v>137</v>
+      <c r="D67" s="12" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="B68" s="14">
         <v>1</v>
       </c>
-      <c r="D68" s="11" t="s">
-        <v>138</v>
+      <c r="D68" s="12" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="B69" s="14">
         <v>1</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>139</v>
+      <c r="D69" s="12" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="B70" s="14">
         <v>1</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="B71" s="14">
         <v>1</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
       <c r="B72" s="14">
         <v>2</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="B73" s="14">
         <v>1</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>142</v>
+        <v>272</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="3"/>
@@ -29090,73 +29171,73 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="B74" s="14">
         <v>1</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>143</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D75" s="12" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D76" s="12" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D77" s="11" t="s">
-        <v>167</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D78" s="11" t="s">
-        <v>168</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D79" s="11" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D80" s="11" t="s">
-        <v>170</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="11" t="s">
-        <v>171</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="11" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="11" t="s">
-        <v>173</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="11" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="11" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="11" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -29171,7 +29252,7 @@
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2:A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29193,7 +29274,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -29204,7 +29285,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -29215,7 +29296,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -29226,7 +29307,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -29237,7 +29318,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -29248,7 +29329,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="11" t="s">
         <v>147</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -29259,7 +29340,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -29270,7 +29351,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="11" t="s">
         <v>149</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -29281,7 +29362,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="11" t="s">
         <v>150</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -29292,7 +29373,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -29303,7 +29384,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -29314,7 +29395,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -29325,7 +29406,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -29336,7 +29417,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -29347,7 +29428,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -29358,7 +29439,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -29369,7 +29450,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="11" t="s">
         <v>152</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -29380,7 +29461,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -29391,7 +29472,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -29402,7 +29483,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -29413,7 +29494,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -29424,7 +29505,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -29435,7 +29516,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="11" t="s">
         <v>100</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -29446,7 +29527,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -29457,7 +29538,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -29468,7 +29549,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="11" t="s">
         <v>153</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -29479,7 +29560,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="11" t="s">
         <v>154</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -29490,7 +29571,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="11" t="s">
         <v>155</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -29501,7 +29582,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -29512,7 +29593,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -29523,7 +29604,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -29534,7 +29615,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -29545,7 +29626,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -29556,7 +29637,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -29567,7 +29648,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="11" t="s">
         <v>110</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -29578,7 +29659,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B37" s="13" t="s">
@@ -29589,7 +29670,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -29600,7 +29681,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -29611,7 +29692,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="11" t="s">
         <v>114</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -29622,7 +29703,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -29633,7 +29714,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="11" t="s">
         <v>116</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -29644,7 +29725,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -29655,7 +29736,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -29666,7 +29747,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="11" t="s">
         <v>157</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -29677,7 +29758,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="11" t="s">
         <v>156</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -29688,7 +29769,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -29699,7 +29780,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -29710,7 +29791,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -29721,7 +29802,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -29732,7 +29813,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="11" t="s">
         <v>158</v>
       </c>
       <c r="B51" s="13" t="s">
@@ -29743,7 +29824,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B52" s="13" t="s">
@@ -29754,7 +29835,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="11" t="s">
         <v>160</v>
       </c>
       <c r="B53" s="13" t="s">
@@ -29765,7 +29846,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B54" s="13" t="s">
@@ -29776,7 +29857,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -29787,7 +29868,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B56" s="13" t="s">
@@ -29798,7 +29879,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="11" t="s">
         <v>128</v>
       </c>
       <c r="B57" s="13" t="s">
@@ -29809,7 +29890,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B58" s="13" t="s">
@@ -29820,7 +29901,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B59" s="13" t="s">
@@ -29831,8 +29912,8 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
-        <v>162</v>
+      <c r="A60" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>237</v>
@@ -29842,8 +29923,8 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
-        <v>163</v>
+      <c r="A61" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>237</v>
@@ -29853,15 +29934,15 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
-        <v>132</v>
+      <c r="A62" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
-        <v>133</v>
+      <c r="A63" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>238</v>
@@ -29871,8 +29952,8 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
-        <v>134</v>
+      <c r="A64" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>221</v>
@@ -29882,8 +29963,8 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
-        <v>135</v>
+      <c r="A65" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>239</v>
@@ -29893,8 +29974,8 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
-        <v>136</v>
+      <c r="A66" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>240</v>
@@ -29904,8 +29985,8 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
-        <v>137</v>
+      <c r="A67" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>241</v>
@@ -29915,8 +29996,8 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
-        <v>138</v>
+      <c r="A68" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>242</v>
@@ -29926,8 +30007,8 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
-        <v>139</v>
+      <c r="A69" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>243</v>
@@ -29937,8 +30018,8 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
-        <v>165</v>
+      <c r="A70" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>244</v>
@@ -29948,8 +30029,8 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>140</v>
+      <c r="A71" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>245</v>
@@ -29959,8 +30040,8 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
-        <v>141</v>
+      <c r="A72" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>246</v>
@@ -29970,8 +30051,8 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
-        <v>142</v>
+      <c r="A73" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>247</v>
@@ -29981,8 +30062,8 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
-        <v>143</v>
+      <c r="A74" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>248</v>
@@ -29992,8 +30073,8 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
-        <v>144</v>
+      <c r="A75" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>250</v>
@@ -30003,8 +30084,8 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
-        <v>166</v>
+      <c r="A76" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>249</v>
@@ -30014,8 +30095,8 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
-        <v>167</v>
+      <c r="A77" s="11" t="s">
+        <v>276</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>251</v>
@@ -30025,8 +30106,8 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
-        <v>168</v>
+      <c r="A78" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>252</v>
@@ -30036,8 +30117,8 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="21" t="s">
-        <v>169</v>
+      <c r="A79" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>253</v>
@@ -30047,8 +30128,8 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="21" t="s">
-        <v>170</v>
+      <c r="A80" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>254</v>
@@ -30058,8 +30139,8 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="21" t="s">
-        <v>171</v>
+      <c r="A81" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>255</v>
@@ -30069,8 +30150,8 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
-        <v>172</v>
+      <c r="A82" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>256</v>
@@ -30080,8 +30161,8 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
-        <v>173</v>
+      <c r="A83" s="11" t="s">
+        <v>287</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>257</v>
@@ -30091,8 +30172,8 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
-        <v>174</v>
+      <c r="A84" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>257</v>
@@ -30102,8 +30183,8 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="21" t="s">
-        <v>175</v>
+      <c r="A85" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>258</v>
@@ -30113,8 +30194,8 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="21" t="s">
-        <v>176</v>
+      <c r="A86" s="11" t="s">
+        <v>284</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>259</v>

--- a/Pycharm/Valores.xlsx
+++ b/Pycharm/Valores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GitsLeo\Analises\Pycharm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Gits_leo\Analises\Pycharm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC848171-10B2-4A21-9145-1406DC3C26E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48224465-394B-45E4-AF78-41B12A3CB210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="2" state="hidden" r:id="rId1"/>
@@ -27958,7 +27958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F55CF89-27AB-4851-9A82-67424CAB9D6F}">
   <dimension ref="A1:A74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
@@ -29251,8 +29251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79E4C3A-C1B7-419D-8829-E0143C46FF40}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A86"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pycharm/Valores.xlsx
+++ b/Pycharm/Valores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Gits_leo\Analises\Pycharm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GitsLeo\Analises\Pycharm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48224465-394B-45E4-AF78-41B12A3CB210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358D3075-3C5F-4DFC-B9CC-0DFF6D934889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="2" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="295">
   <si>
     <t>MARLON ROGER COLOVINI</t>
   </si>
@@ -905,6 +905,24 @@
   <si>
     <t>71 - Tania Regina Schmaltz - 02</t>
   </si>
+  <si>
+    <t>49 - APAE</t>
+  </si>
+  <si>
+    <t>42 - AABB</t>
+  </si>
+  <si>
+    <t>42 - AABB - 01</t>
+  </si>
+  <si>
+    <t>42 - AABB - 02</t>
+  </si>
+  <si>
+    <t>49 - APAE - 01</t>
+  </si>
+  <si>
+    <t>49 - APAE - 02</t>
+  </si>
 </sst>
 </file>
 
@@ -21421,7 +21439,7 @@
   <dimension ref="A1:BV85"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28347,8 +28365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FA72F8-85D4-4737-B423-04B358B2D37B}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A74"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28823,7 +28841,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>124</v>
+        <v>290</v>
       </c>
       <c r="B43" s="14">
         <v>2</v>
@@ -28900,7 +28918,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B50" s="14">
         <v>2</v>
@@ -28917,7 +28935,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>158</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -28928,7 +28946,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>159</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -29016,7 +29034,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -29027,7 +29045,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -29251,8 +29269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79E4C3A-C1B7-419D-8829-E0143C46FF40}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pycharm/Valores.xlsx
+++ b/Pycharm/Valores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GitsLeo\Analises\Pycharm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Gits_leo\Analises\Pycharm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358D3075-3C5F-4DFC-B9CC-0DFF6D934889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C052F34B-CAC4-4BD0-B38C-5B8CD58C6AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="2" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="294">
   <si>
     <t>MARLON ROGER COLOVINI</t>
   </si>
@@ -573,9 +573,6 @@
     <t>72 - Tania Regina Schmaltz</t>
   </si>
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>Nomes</t>
   </si>
   <si>
@@ -819,9 +816,6 @@
     <t>020.070.630-69</t>
   </si>
   <si>
-    <t>49 - Apae</t>
-  </si>
-  <si>
     <t>50 - Cássio Burin</t>
   </si>
   <si>
@@ -922,6 +916,9 @@
   </si>
   <si>
     <t>49 - APAE - 02</t>
+  </si>
+  <si>
+    <t>Nome</t>
   </si>
 </sst>
 </file>
@@ -27974,10 +27971,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F55CF89-27AB-4851-9A82-67424CAB9D6F}">
-  <dimension ref="A1:A74"/>
+  <dimension ref="A1:A75"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27988,7 +27985,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>178</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -28198,7 +28195,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
@@ -28233,131 +28230,135 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>284</v>
-      </c>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28365,8 +28366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FA72F8-85D4-4737-B423-04B358B2D37B}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A74" sqref="A2:A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28379,13 +28380,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>180</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -28841,7 +28842,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B43" s="14">
         <v>2</v>
@@ -28918,7 +28919,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B50" s="14">
         <v>2</v>
@@ -28929,29 +28930,29 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B51" s="14">
         <v>1</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B52" s="14">
         <v>1</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B53" s="14">
         <v>1</v>
@@ -28962,7 +28963,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B54" s="14">
         <v>1</v>
@@ -28973,7 +28974,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B55" s="14">
         <v>1</v>
@@ -28984,7 +28985,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B56" s="14">
         <v>1</v>
@@ -28995,7 +28996,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B57" s="14">
         <v>1</v>
@@ -29006,7 +29007,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B58" s="14">
         <v>1</v>
@@ -29017,7 +29018,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B59" s="14">
         <v>1</v>
@@ -29028,156 +29029,156 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B60" s="14">
         <v>1</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B61" s="14">
         <v>1</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B62" s="14">
         <v>1</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B63" s="14">
         <v>1</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B64" s="14">
         <v>1</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B65" s="14">
         <v>1</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B66" s="14">
         <v>1</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B67" s="14">
         <v>1</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B68" s="14">
         <v>1</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B69" s="14">
         <v>1</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B70" s="14">
         <v>1</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B71" s="14">
         <v>1</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B72" s="14">
         <v>2</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B73" s="14">
         <v>1</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="3"/>
@@ -29189,73 +29190,73 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B74" s="14">
         <v>1</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D75" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D76" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D77" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D78" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D79" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D80" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -29282,13 +29283,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>190</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -29296,7 +29297,7 @@
         <v>145</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="13">
         <v>3083300629</v>
@@ -29307,7 +29308,7 @@
         <v>146</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="13">
         <v>3085618498</v>
@@ -29318,7 +29319,7 @@
         <v>84</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="13">
         <v>3085548485</v>
@@ -29329,7 +29330,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="13">
         <v>4001748269</v>
@@ -29340,7 +29341,7 @@
         <v>86</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="13">
         <v>3085346925</v>
@@ -29351,7 +29352,7 @@
         <v>147</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="13">
         <v>3082631096</v>
@@ -29362,7 +29363,7 @@
         <v>148</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="13">
         <v>3081865074</v>
@@ -29373,7 +29374,7 @@
         <v>149</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="13">
         <v>3082863143</v>
@@ -29384,7 +29385,7 @@
         <v>150</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" s="13">
         <v>3085362352</v>
@@ -29395,7 +29396,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="13">
         <v>3081867061</v>
@@ -29406,7 +29407,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="13">
         <v>4001373241</v>
@@ -29417,7 +29418,7 @@
         <v>90</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="13">
         <v>3085470066</v>
@@ -29428,7 +29429,7 @@
         <v>91</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="13">
         <v>3085417983</v>
@@ -29439,7 +29440,7 @@
         <v>92</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="13">
         <v>3081861508</v>
@@ -29450,7 +29451,7 @@
         <v>93</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="13">
         <v>4001902098</v>
@@ -29461,7 +29462,7 @@
         <v>151</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="13">
         <v>3081860306</v>
@@ -29472,7 +29473,7 @@
         <v>152</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="13">
         <v>3081864098</v>
@@ -29483,7 +29484,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" s="13">
         <v>3085308153</v>
@@ -29494,7 +29495,7 @@
         <v>96</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" s="13">
         <v>3081861879</v>
@@ -29505,7 +29506,7 @@
         <v>97</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="13">
         <v>3085565602</v>
@@ -29516,7 +29517,7 @@
         <v>98</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="13">
         <v>3081865804</v>
@@ -29527,7 +29528,7 @@
         <v>99</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" s="13">
         <v>3081813649</v>
@@ -29538,7 +29539,7 @@
         <v>100</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="13">
         <v>3085586714</v>
@@ -29549,7 +29550,7 @@
         <v>101</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="13">
         <v>3081819254</v>
@@ -29560,7 +29561,7 @@
         <v>102</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="13">
         <v>3085763663</v>
@@ -29571,7 +29572,7 @@
         <v>153</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27" s="13">
         <v>3082895949</v>
@@ -29582,7 +29583,7 @@
         <v>154</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28" s="13">
         <v>3082882653</v>
@@ -29593,7 +29594,7 @@
         <v>155</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" s="13">
         <v>3082223745</v>
@@ -29604,7 +29605,7 @@
         <v>104</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C30" s="13">
         <v>3085496262</v>
@@ -29615,7 +29616,7 @@
         <v>105</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31" s="13">
         <v>3085693298</v>
@@ -29626,7 +29627,7 @@
         <v>106</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" s="13">
         <v>3085521737</v>
@@ -29637,10 +29638,10 @@
         <v>107</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -29648,10 +29649,10 @@
         <v>108</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -29659,7 +29660,7 @@
         <v>109</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="13">
         <v>3081821554</v>
@@ -29670,7 +29671,7 @@
         <v>110</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C36" s="13">
         <v>3083051155</v>
@@ -29681,7 +29682,7 @@
         <v>111</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C37" s="13">
         <v>3081818340</v>
@@ -29692,7 +29693,7 @@
         <v>112</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C38" s="13">
         <v>3081823500</v>
@@ -29703,7 +29704,7 @@
         <v>113</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C39" s="13">
         <v>3081818661</v>
@@ -29714,7 +29715,7 @@
         <v>114</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="13">
         <v>3081821814</v>
@@ -29725,7 +29726,7 @@
         <v>115</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C41" s="13">
         <v>3081866911</v>
@@ -29736,7 +29737,7 @@
         <v>116</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="13">
         <v>3081825941</v>
@@ -29747,7 +29748,7 @@
         <v>117</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C43" s="13">
         <v>4001823033</v>
@@ -29758,7 +29759,7 @@
         <v>118</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C44" s="13">
         <v>3082004835</v>
@@ -29769,7 +29770,7 @@
         <v>157</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C45" s="13">
         <v>3081864867</v>
@@ -29780,7 +29781,7 @@
         <v>156</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C46" s="13">
         <v>3085439775</v>
@@ -29791,7 +29792,7 @@
         <v>120</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C47" s="13">
         <v>3081823790</v>
@@ -29802,7 +29803,7 @@
         <v>121</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C48" s="13">
         <v>3085669302</v>
@@ -29813,7 +29814,7 @@
         <v>122</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C49" s="13">
         <v>3085008919</v>
@@ -29824,7 +29825,7 @@
         <v>123</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C50" s="13">
         <v>3085458559</v>
@@ -29835,7 +29836,7 @@
         <v>158</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C51" s="13">
         <v>3082157761</v>
@@ -29846,7 +29847,7 @@
         <v>159</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C52" s="13">
         <v>3081819696</v>
@@ -29857,7 +29858,7 @@
         <v>160</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C53" s="13">
         <v>4001585180</v>
@@ -29868,7 +29869,7 @@
         <v>161</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C54" s="13">
         <v>4001585181</v>
@@ -29879,7 +29880,7 @@
         <v>126</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C55" s="13">
         <v>3085487150</v>
@@ -29890,7 +29891,7 @@
         <v>127</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C56" s="13">
         <v>3081864290</v>
@@ -29901,7 +29902,7 @@
         <v>128</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C57" s="13">
         <v>3081819032</v>
@@ -29912,7 +29913,7 @@
         <v>129</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C58" s="13">
         <v>3082306691</v>
@@ -29923,7 +29924,7 @@
         <v>130</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C59" s="13">
         <v>3081862486</v>
@@ -29931,10 +29932,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C60" s="13">
         <v>3082985586</v>
@@ -29942,10 +29943,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C61" s="13">
         <v>3083089774</v>
@@ -29953,17 +29954,17 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C63" s="13">
         <v>3081867047</v>
@@ -29971,10 +29972,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C64" s="13">
         <v>3085274814</v>
@@ -29982,10 +29983,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C65" s="13">
         <v>29489</v>
@@ -29993,10 +29994,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C66" s="13">
         <v>3081817431</v>
@@ -30004,10 +30005,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C67" s="13">
         <v>3081862676</v>
@@ -30015,10 +30016,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C68" s="13">
         <v>3081863964</v>
@@ -30026,10 +30027,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C69" s="13">
         <v>3085594832</v>
@@ -30037,10 +30038,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C70" s="13">
         <v>3085121767</v>
@@ -30048,10 +30049,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C71" s="13">
         <v>3085678879</v>
@@ -30059,10 +30060,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C72" s="13">
         <v>3085699407</v>
@@ -30070,10 +30071,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C73" s="13">
         <v>3083059406</v>
@@ -30081,10 +30082,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C74" s="13">
         <v>3085304023</v>
@@ -30092,10 +30093,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C75" s="13">
         <v>3082631520</v>
@@ -30103,10 +30104,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C76" s="13">
         <v>4002489141</v>
@@ -30114,10 +30115,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C77" s="13">
         <v>3081866452</v>
@@ -30125,10 +30126,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C78" s="13">
         <v>3081897152</v>
@@ -30136,10 +30137,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C79" s="13">
         <v>3081820519</v>
@@ -30147,10 +30148,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C80" s="13">
         <v>3081862400</v>
@@ -30158,10 +30159,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C81" s="13">
         <v>3081863809</v>
@@ -30169,10 +30170,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C82" s="13">
         <v>3090911220</v>
@@ -30180,10 +30181,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C83" s="13">
         <v>3085532164</v>
@@ -30191,10 +30192,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C84" s="13">
         <v>3081865969</v>
@@ -30202,10 +30203,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C85" s="13">
         <v>3085643215</v>
@@ -30213,10 +30214,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C86" s="13">
         <v>3081863349</v>

--- a/Pycharm/Valores.xlsx
+++ b/Pycharm/Valores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Gits_leo\Analises\Pycharm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GitsLeo\Analises\Pycharm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C052F34B-CAC4-4BD0-B38C-5B8CD58C6AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F842E6-3119-48CA-AD1C-BBB273EE5DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{86A221B7-CE72-40EA-8CEA-223EEF95CFAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="2" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="296">
   <si>
     <t>MARLON ROGER COLOVINI</t>
   </si>
@@ -920,6 +920,12 @@
   <si>
     <t>Nome</t>
   </si>
+  <si>
+    <t>74 - Claudio Alfredo Konrat</t>
+  </si>
+  <si>
+    <t>190.250.250-72</t>
+  </si>
 </sst>
 </file>
 
@@ -1018,7 +1024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1072,6 +1078,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8038,8 +8047,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83944FA7-2B9D-497D-9307-56C7C344D152}" name="Tabela2" displayName="Tabela2" ref="A1:C86" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C86" xr:uid="{B03BFCC7-9215-4846-A4A7-88F3CB14F4D5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83944FA7-2B9D-497D-9307-56C7C344D152}" name="Tabela2" displayName="Tabela2" ref="A1:C87" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C87" xr:uid="{B03BFCC7-9215-4846-A4A7-88F3CB14F4D5}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{EB822287-3FDE-422A-91AE-AAB08E4AC17D}" name="Cliente" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{93991643-5D6A-4A96-9784-0FBCE909BBF8}" name="CPF/CNPJ" dataDxfId="1"/>
@@ -17473,8 +17482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11308B6-D7F6-44FA-9E2F-A11D9810D55D}">
   <dimension ref="A1:CH85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24628,7 +24637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2A2AF-D4A1-4D7C-8C5A-AD3DEA220354}">
   <dimension ref="A1:BV85"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>
@@ -27973,8 +27982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F55CF89-27AB-4851-9A82-67424CAB9D6F}">
   <dimension ref="A1:A75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28354,7 +28363,9 @@
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
+      <c r="A75" s="11" t="s">
+        <v>294</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -28364,10 +28375,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FA72F8-85D4-4737-B423-04B358B2D37B}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A74" sqref="A2:A74"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29200,6 +29211,12 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B75" s="14">
+        <v>1</v>
+      </c>
       <c r="D75" s="12" t="s">
         <v>272</v>
       </c>
@@ -29257,6 +29274,11 @@
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="11" t="s">
         <v>282</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="14" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -29268,10 +29290,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79E4C3A-C1B7-419D-8829-E0143C46FF40}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30223,6 +30245,17 @@
         <v>3081863349</v>
       </c>
     </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C87" s="21">
+        <v>3085752716</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
